--- a/data/postprocessed/table/MPentropy/spearman/correaltions.xlsx
+++ b/data/postprocessed/table/MPentropy/spearman/correaltions.xlsx
@@ -480,61 +480,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0.3400423899126752</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1392500690033995</v>
+        <v>0.2539039686601514</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1392500690033995</v>
+        <v>-0.1435109388079117</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3381787390082559</v>
+        <v>-0.06402795731429904</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>-0.05780733130160799</v>
+        <v>-0.05453510026901395</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.028903665650804</v>
+        <v>0.2063054549602106</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2405818075750601</v>
+        <v>-0.3164322054900608</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5653142493350518</v>
+        <v>0.4534878842403504</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2118622331314245</v>
+        <v>0.08019867686619699</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>0.3764010145058955</v>
+        <v>0.08759447578528413</v>
       </c>
       <c r="N2" t="n">
-        <v>0.173421993904824</v>
+        <v>0.3079629191661964</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.260132990857236</v>
+        <v>0.3175867603901401</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3381787390082559</v>
+        <v>-0.2671511322424202</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2306973959874843</v>
+        <v>-0.08226004208754302</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>-0.04544891164112698</v>
+        <v>-0.5135060154474426</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.07795318705451733</v>
+        <v>0.3653241690774013</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1507735125084503</v>
+        <v>0.012117414870467</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.06746446239784414</v>
+        <v>-0.1959289114047993</v>
       </c>
     </row>
     <row r="3">
@@ -544,61 +544,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.007854267608780977</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5582037583475348</v>
+        <v>0.05028055808055044</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5582037583475348</v>
+        <v>0.2739896320923436</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1447371604873946</v>
+        <v>0.6269496924153324</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.8087196700139523</v>
+        <v>0.6789846176908165</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9037205579882889</v>
+        <v>0.1137673362698121</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3069019013782924</v>
+        <v>0.01377161471086734</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0093895357630317</v>
+        <v>0.0002738789944284008</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3698739316510808</v>
+        <v>0.5424377485709881</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>0.1018947810048961</v>
+        <v>0.505723161097994</v>
       </c>
       <c r="N3" t="n">
-        <v>0.464658777697064</v>
+        <v>0.01667550495892327</v>
       </c>
       <c r="O3" t="n">
-        <v>0.268013467258769</v>
+        <v>0.01341161308485215</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1447371604873946</v>
+        <v>0.03906694655211305</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3277954897241925</v>
+        <v>0.5320760097623757</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>0.8491023063073544</v>
+        <v>2.718118566890267e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5538353405528773</v>
+        <v>4.592859788038711e-07</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2501822302727092</v>
+        <v>0.8717425259125841</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6085329587479933</v>
+        <v>0.008390272948327417</v>
       </c>
     </row>
   </sheetData>
